--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ashton C Agar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1020,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1316,7 +1379,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1478,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1567,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1589,7 +1650,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1626,7 +1687,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1663,7 +1724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1700,7 +1761,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1737,7 +1798,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1774,7 +1835,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1811,7 +1872,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1848,7 +1909,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1885,7 +1946,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1922,7 +1983,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1959,7 +2020,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2033,7 +2094,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2070,7 +2131,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2107,7 +2168,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2144,7 +2205,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2181,7 +2242,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2218,7 +2279,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2255,7 +2316,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2292,7 +2353,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2329,7 +2390,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2366,7 +2427,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2392,6 +2453,511 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>2/41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.07%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.69%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.46%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2516,9 +2517,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2544,7 +2542,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2617,15 +2614,422 @@
           <t>4167</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10.46%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2633,27 +3037,14 @@
           <t>4168</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.46%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2665,13 +3056,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2679,23 +3063,14 @@
           <t>4170</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2705,15 +3080,14 @@
           <t>4398</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2723,29 +3097,12 @@
           <t>4399</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.22%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2753,27 +3110,14 @@
           <t>4400</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2785,13 +3129,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2799,27 +3136,14 @@
           <t>4437</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.69%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2831,13 +3155,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2847,13 +3164,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2861,17 +3171,8 @@
           <t>4645</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2879,23 +3180,14 @@
           <t>4646</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>8</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2907,13 +3199,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2923,13 +3208,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2937,27 +3215,14 @@
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.32%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2517,6 +2516,9 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2542,6 +2544,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2614,6 +2617,10 @@
           <t>4167</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2656,6 +2663,10 @@
           <t>4169</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2681,6 +2692,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2696,6 +2708,9 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2768,6 +2783,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2810,6 +2829,10 @@
           <t>4486</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2822,6 +2845,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2837,6 +2864,9 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2862,6 +2892,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2874,6 +2905,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2886,6 +2921,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2919,310 +2958,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3834</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4069</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4071</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4166</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4168</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4224.xlsx
@@ -2467,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,12 +2510,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3834</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -2528,22 +2526,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
@@ -2554,7 +2544,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2562,7 +2552,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2570,11 +2560,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.07%</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2584,15 +2570,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2602,7 +2588,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.69%</t>
+          <t>3.07%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2614,13 +2600,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18.69%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2630,27 +2630,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4168</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.46%</t>
-        </is>
-      </c>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2660,13 +2646,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.46%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2676,22 +2676,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
@@ -2702,14 +2692,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -2720,27 +2718,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.22%</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2750,25 +2736,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2780,13 +2766,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2796,27 +2796,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.69%</t>
-        </is>
-      </c>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2826,13 +2812,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2842,7 +2842,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -2858,12 +2858,10 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -2876,22 +2874,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -2902,12 +2892,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2934,28 +2934,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>6.32%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
